--- a/countries_withcolors-constructor.xlsx
+++ b/countries_withcolors-constructor.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="countries_withcolors" sheetId="1" r:id="rId1"/>
     <sheet name="output_values" sheetId="4" r:id="rId2"/>
     <sheet name="input_values" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="397">
   <si>
     <t>var statesData =</t>
   </si>
@@ -1214,14 +1215,28 @@
   </si>
   <si>
     <t>,name:"Zimbabwe"},"geometry":{"type":"Polygon","coordinates":[[[31.191409,-22.25151],[30.659865,-22.151567],[30.322883,-22.271612],[29.839037,-22.102216],[29.432188,-22.091313],[28.794656,-21.639454],[28.02137,-21.485975],[27.727228,-20.851802],[27.724747,-20.499059],[27.296505,-20.39152],[26.164791,-19.293086],[25.850391,-18.714413],[25.649163,-18.536026],[25.264226,-17.73654],[26.381935,-17.846042],[26.706773,-17.961229],[27.044427,-17.938026],[27.598243,-17.290831],[28.467906,-16.4684],[28.825869,-16.389749],[28.947463,-16.043051],[29.516834,-15.644678],[30.274256,-15.507787],[30.338955,-15.880839],[31.173064,-15.860944],[31.636498,-16.07199],[31.852041,-16.319417],[32.328239,-16.392074],[32.847639,-16.713398],[32.849861,-17.979057],[32.654886,-18.67209],[32.611994,-19.419383],[32.772708,-19.715592],[32.659743,-20.30429],[32.508693,-20.395292],[32.244988,-21.116489],[31.191409,-22.25151]]]</t>
+  </si>
+  <si>
+    <t>props.beach*document.getElementById("</t>
+  </si>
+  <si>
+    <t>document.getElementById("</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1249,9 +1264,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2648,7 +2665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4123,8 +4140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22717,4 +22734,480 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1" s="3" t="str">
+        <f>CHAR(34)&amp;").checked +"</f>
+        <v>").checked +</v>
+      </c>
+      <c r="F1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CHAR(34)&amp;").checked +"</f>
+        <v>").checked +</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="str">
+        <f>C$1&amp;A2&amp;D$1</f>
+        <v>props.beach*document.getElementById("wonders").checked +</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="F2" t="str">
+        <f>F$1&amp;A2&amp;G$1</f>
+        <v>document.getElementById("wonders").checked +</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C32" si="0">C$1&amp;A3&amp;D$1</f>
+        <v>props.beach*document.getElementById("wildlife").checked +</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F32" si="1">F$1&amp;A3&amp;G$1</f>
+        <v>document.getElementById("wildlife").checked +</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("jungle").checked +</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("jungle").checked +</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("desert").checked +</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("desert").checked +</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("islands").checked +</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("islands").checked +</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("winter").checked +</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("winter").checked +</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("eco").checked +</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("eco").checked +</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("mountains").checked +</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("mountains").checked +</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("landscape").checked +</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("landscape").checked +</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("wellness").checked +</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("wellness").checked +</v>
+      </c>
+      <c r="I11">
+        <f>1/31</f>
+        <v>3.2258064516129031E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("golfing").checked +</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("golfing").checked +</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("fishing").checked +</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("fishing").checked +</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("beach").checked +</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("beach").checked +</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("villa").checked +</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("villa").checked +</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("zipline").checked +</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("zipline").checked +</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("rafting").checked +</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("rafting").checked +</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("parachute").checked +</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("parachute").checked +</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("biking").checked +</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("biking").checked +</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("watersport").checked +</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("watersport").checked +</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("scuba").checked +</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("scuba").checked +</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("speed").checked +</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("speed").checked +</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("bungee").checked +</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("bungee").checked +</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("history").checked +</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("history").checked +</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("unesco").checked +</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("unesco").checked +</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("food").checked +</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("food").checked +</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("museum").checked +</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("museum").checked +</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("architecture").checked +</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("architecture").checked +</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("locals").checked +</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("locals").checked +</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("nightlife").checked +</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("nightlife").checked +</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("bbirds").checked +</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("bbirds").checked +</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>props.beach*document.getElementById("festival").checked +</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("festival").checked +</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>